--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2428.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2428.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.027863271671705</v>
+        <v>0.7697287797927856</v>
       </c>
       <c r="B1">
-        <v>2.082863466732665</v>
+        <v>2.239279270172119</v>
       </c>
       <c r="C1">
-        <v>8.976058883655345</v>
+        <v>3.345126867294312</v>
       </c>
       <c r="D1">
-        <v>2.274058010672357</v>
+        <v>3.682670116424561</v>
       </c>
       <c r="E1">
-        <v>0.9932135507161772</v>
+        <v>0.9134379625320435</v>
       </c>
     </row>
   </sheetData>
